--- a/Feedback Form.xlsx
+++ b/Feedback Form.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narayana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qualcomm-my.sharepoint.com/personal/narayana_qti_qualcomm_com/Documents/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7F95E5-4F75-4647-9953-65A2FA5907D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{0B7F95E5-4F75-4647-9953-65A2FA5907D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD4C8EB-DE6A-4F49-8F43-5D25F22D4D92}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final Feedback" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>Start time</t>
   </si>
@@ -263,6 +263,15 @@
   </si>
   <si>
     <t>Is the terminology consistent throughout the document? Are the same terms used to convey similar concepts?</t>
+  </si>
+  <si>
+    <t>Task #</t>
+  </si>
+  <si>
+    <t>JIRA #</t>
+  </si>
+  <si>
+    <t>QC POC</t>
   </si>
 </sst>
 </file>
@@ -679,31 +688,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -727,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -757,6 +748,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1074,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02296837-84CD-4736-83CF-6A6919CB7C4F}">
   <dimension ref="B1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1237,233 +1246,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{854272D3-3A69-466A-9FAF-BC948F91B982}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.3046875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="30.15234375" customWidth="1"/>
-    <col min="3" max="3" width="52.69140625" customWidth="1"/>
-    <col min="4" max="4" width="42.53515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3828125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="22.23046875" customWidth="1"/>
+    <col min="3" max="3" width="21.15234375" customWidth="1"/>
+    <col min="4" max="4" width="66.765625" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="14.53515625" customWidth="1"/>
+    <col min="7" max="7" width="27.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="F1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="21"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="21"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="21"/>
       <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="21"/>
-      <c r="C4" s="14"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="21"/>
-      <c r="C5" s="14"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
-      <c r="C6" s="14"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="14"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
-      <c r="C8" s="14"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
-      <c r="C9" s="14"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
-      <c r="C10" s="14"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="21"/>
-      <c r="C11" s="14"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="21"/>
-      <c r="C12" s="14"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="21"/>
-      <c r="C14" s="14"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="14"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="21"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="21"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="21"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="14"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="14"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="21"/>
-      <c r="C31" s="14"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="21"/>
-      <c r="C35" s="14"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="21"/>
-      <c r="C36" s="14"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="21"/>
-      <c r="C38" s="14"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="21"/>
-      <c r="C39" s="14"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="21"/>
-      <c r="C40" s="14"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="21"/>
-      <c r="C41" s="14"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1480,330 +1621,330 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.15234375" style="50"/>
-    <col min="2" max="2" width="133.69140625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="9.15234375" style="44"/>
+    <col min="2" max="2" width="133.69140625" style="45" customWidth="1"/>
     <col min="3" max="3" width="44.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:3" s="23" customFormat="1" ht="18.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="25" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A6" s="32">
+      <c r="A6" s="27">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="37"/>
+      <c r="C7" s="32"/>
     </row>
     <row r="8" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="37"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="37"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="37"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="37"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="37"/>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="37"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A14" s="38">
+      <c r="A14" s="33">
         <v>2</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="40"/>
+      <c r="C14" s="34"/>
     </row>
     <row r="15" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="40"/>
+      <c r="C15" s="34"/>
     </row>
     <row r="16" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="40"/>
+      <c r="C17" s="34"/>
     </row>
     <row r="18" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="40"/>
+      <c r="C18" s="34"/>
     </row>
     <row r="19" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="34"/>
     </row>
     <row r="20" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="34"/>
     </row>
     <row r="22" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A22" s="38">
+      <c r="A22" s="33">
         <v>3</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="35"/>
     </row>
     <row r="24" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="41"/>
+      <c r="C24" s="35"/>
     </row>
     <row r="25" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="35"/>
     </row>
     <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="38">
+      <c r="A26" s="33">
         <v>4</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="37"/>
     </row>
     <row r="27" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:3" ht="36.9" x14ac:dyDescent="0.4">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="37"/>
     </row>
     <row r="29" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43"/>
+      <c r="C30" s="37"/>
     </row>
     <row r="31" spans="1:3" ht="37.299999999999997" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="40"/>
     </row>
     <row r="32" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A32" s="32">
+      <c r="A32" s="27">
         <v>5</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="43"/>
+      <c r="C33" s="37"/>
     </row>
     <row r="34" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="36" t="s">
+      <c r="B34" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="37"/>
     </row>
     <row r="35" spans="1:3" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="C35" s="43"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3" ht="18.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
